--- a/scr/main/resources/data/StudentData.xlsx
+++ b/scr/main/resources/data/StudentData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mecha\Documents\GitHub\Invited-Meeting-Scheduler\scr\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A51A5F-C26A-4360-85D9-033C4062972D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CDF92D-702A-4D6B-BF08-209F51466FA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="4215" windowWidth="25080" windowHeight="11385" xr2:uid="{3F80A9F9-5585-4065-BFAC-5B8001948D72}"/>
+    <workbookView xWindow="2685" yWindow="4215" windowWidth="25080" windowHeight="11385" xr2:uid="{3F80A9F9-5585-4065-BFAC-5B8001948D72}"/>
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -121,7 +121,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,8 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,10 +470,13 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -499,7 +502,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>111109</v>
       </c>
       <c r="B2" t="s">
@@ -521,9 +524,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>111110.0</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>111110</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>

--- a/scr/main/resources/data/StudentData.xlsx
+++ b/scr/main/resources/data/StudentData.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mecha\Documents\GitHub\Invited-Meeting-Scheduler\scr\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC46B55-0B3D-4D25-B9D2-65348CF6FA57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="1755" windowWidth="12060" windowHeight="11385" activeTab="1" xr2:uid="{3F80A9F9-5585-4065-BFAC-5B8001948D72}"/>
+    <workbookView xWindow="4470" yWindow="1755" windowWidth="12060" windowHeight="11385" activeTab="0" xr2:uid="{3F80A9F9-5585-4065-BFAC-5B8001948D72}"/>
   </bookViews>
   <sheets>
     <sheet name="RawData" sheetId="1" r:id="rId1"/>
-    <sheet name="ScheduleData" sheetId="2" r:id="rId2"/>
+    <sheet name="ScheduleData" r:id="rId6" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16981" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -109,6 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,8 +485,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="7" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="9.5703125" collapsed="true"/>
+    <col min="2" max="7" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4984,16 +4985,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -5019,9 +5018,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>122534</v>
+    <row r="2">
+      <c r="A2"/>
+      <c r="B2" t="n">
+        <v>122534.0</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -5030,90 +5030,98 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3"/>
+      <c r="B3" t="n">
+        <v>122789.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4">
+      <c r="A4"/>
+      <c r="B4" t="n">
+        <v>122873.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5">
+      <c r="A5"/>
+      <c r="B5" t="n">
+        <v>123788.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="6">
+      <c r="A6"/>
+      <c r="B6" t="n">
+        <v>130892.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>122789</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>122873</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>123788</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>130892</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
@@ -5122,9 +5130,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>132394</v>
+    <row r="7">
+      <c r="A7"/>
+      <c r="B7" t="n">
+        <v>132394.0</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -5138,10 +5147,13 @@
       <c r="F7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>132532</v>
+      <c r="G7"/>
+      <c r="H7"/>
+    </row>
+    <row r="8">
+      <c r="A8"/>
+      <c r="B8" t="n">
+        <v>132532.0</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -5155,10 +5167,13 @@
       <c r="F8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>132853</v>
+      <c r="G8"/>
+      <c r="H8"/>
+    </row>
+    <row r="9">
+      <c r="A9"/>
+      <c r="B9" t="n">
+        <v>132853.0</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -5172,10 +5187,13 @@
       <c r="F9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>134333</v>
+      <c r="G9"/>
+      <c r="H9"/>
+    </row>
+    <row r="10">
+      <c r="A10"/>
+      <c r="B10" t="n">
+        <v>134333.0</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -5189,10 +5207,13 @@
       <c r="F10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>134390</v>
+      <c r="G10"/>
+      <c r="H10"/>
+    </row>
+    <row r="11">
+      <c r="A11"/>
+      <c r="B11" t="n">
+        <v>134390.0</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -5213,9 +5234,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>135062</v>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12" t="n">
+        <v>135062.0</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -5229,10 +5251,13 @@
       <c r="F12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>137940</v>
+      <c r="G12"/>
+      <c r="H12"/>
+    </row>
+    <row r="13">
+      <c r="A13"/>
+      <c r="B13" t="n">
+        <v>137940.0</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -5241,10 +5266,10 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
@@ -5253,9 +5278,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>140093</v>
+    <row r="14">
+      <c r="A14"/>
+      <c r="B14" t="n">
+        <v>140093.0</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -5272,10 +5298,12 @@
       <c r="G14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>140892</v>
+      <c r="H14"/>
+    </row>
+    <row r="15">
+      <c r="A15"/>
+      <c r="B15" t="n">
+        <v>140892.0</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -5289,10 +5317,13 @@
       <c r="F15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>142310</v>
+      <c r="G15"/>
+      <c r="H15"/>
+    </row>
+    <row r="16">
+      <c r="A16"/>
+      <c r="B16" t="n">
+        <v>142310.0</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -5313,9 +5344,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>146632</v>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="n">
+        <v>146632.0</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -5324,18 +5356,20 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
         <v>19</v>
       </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>156681</v>
+      <c r="H17"/>
+    </row>
+    <row r="18">
+      <c r="A18"/>
+      <c r="B18" t="n">
+        <v>156681.0</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -5349,10 +5383,13 @@
       <c r="F18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>161618</v>
+      <c r="G18"/>
+      <c r="H18"/>
+    </row>
+    <row r="19">
+      <c r="A19"/>
+      <c r="B19" t="n">
+        <v>161618.0</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -5366,10 +5403,13 @@
       <c r="F19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>168329</v>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20">
+      <c r="A20"/>
+      <c r="B20" t="n">
+        <v>168329.0</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -5383,10 +5423,13 @@
       <c r="F20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>169650</v>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21">
+      <c r="A21"/>
+      <c r="B21" t="n">
+        <v>169650.0</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -5400,10 +5443,13 @@
       <c r="F21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>173425</v>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22">
+      <c r="A22"/>
+      <c r="B22" t="n">
+        <v>173425.0</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -5417,10 +5463,13 @@
       <c r="F22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>178071</v>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="n">
+        <v>178071.0</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -5429,18 +5478,20 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>178156</v>
+        <v>21</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="n">
+        <v>178156.0</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -5454,10 +5505,13 @@
       <c r="F24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>181903</v>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25">
+      <c r="A25"/>
+      <c r="B25" t="n">
+        <v>181903.0</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -5466,10 +5520,10 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
         <v>20</v>
@@ -5478,9 +5532,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>182120</v>
+    <row r="26">
+      <c r="A26"/>
+      <c r="B26" t="n">
+        <v>182120.0</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -5494,10 +5549,13 @@
       <c r="F26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>186663</v>
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="n">
+        <v>186663.0</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -5518,9 +5576,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>187393</v>
+    <row r="28">
+      <c r="A28"/>
+      <c r="B28" t="n">
+        <v>187393.0</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -5529,18 +5588,20 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>190029</v>
+      <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29"/>
+      <c r="B29" t="n">
+        <v>190029.0</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -5557,10 +5618,12 @@
       <c r="G29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>194574</v>
+      <c r="H29"/>
+    </row>
+    <row r="30">
+      <c r="A30"/>
+      <c r="B30" t="n">
+        <v>194574.0</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -5574,10 +5637,13 @@
       <c r="F30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>198048</v>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31">
+      <c r="A31"/>
+      <c r="B31" t="n">
+        <v>198048.0</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -5594,10 +5660,12 @@
       <c r="G31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>198741</v>
+      <c r="H31"/>
+    </row>
+    <row r="32">
+      <c r="A32"/>
+      <c r="B32" t="n">
+        <v>198741.0</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -5611,10 +5679,13 @@
       <c r="F32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>199787</v>
+      <c r="G32"/>
+      <c r="H32"/>
+    </row>
+    <row r="33">
+      <c r="A33"/>
+      <c r="B33" t="n">
+        <v>199787.0</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -5623,10 +5694,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
         <v>20</v>
@@ -5635,9 +5706,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>200672</v>
+    <row r="34">
+      <c r="A34"/>
+      <c r="B34" t="n">
+        <v>200672.0</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -5651,10 +5723,13 @@
       <c r="F34" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>210938</v>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35">
+      <c r="A35"/>
+      <c r="B35" t="n">
+        <v>210938.0</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -5675,9 +5750,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>225969</v>
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36" t="n">
+        <v>225969.0</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -5691,10 +5767,13 @@
       <c r="F36" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>231348</v>
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37">
+      <c r="A37"/>
+      <c r="B37" t="n">
+        <v>231348.0</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -5703,18 +5782,20 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
         <v>19</v>
       </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>232461</v>
+      <c r="H37"/>
+    </row>
+    <row r="38">
+      <c r="A38"/>
+      <c r="B38" t="n">
+        <v>232461.0</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -5728,10 +5809,13 @@
       <c r="F38" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>257317</v>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39">
+      <c r="A39"/>
+      <c r="B39" t="n">
+        <v>257317.0</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -5745,10 +5829,13 @@
       <c r="F39" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>276682</v>
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+    <row r="40">
+      <c r="A40"/>
+      <c r="B40" t="n">
+        <v>276682.0</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -5762,10 +5849,13 @@
       <c r="F40" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>278390</v>
+      <c r="G40"/>
+      <c r="H40"/>
+    </row>
+    <row r="41">
+      <c r="A41"/>
+      <c r="B41" t="n">
+        <v>278390.0</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -5779,10 +5869,13 @@
       <c r="F41" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>292270</v>
+      <c r="G41"/>
+      <c r="H41"/>
+    </row>
+    <row r="42">
+      <c r="A42"/>
+      <c r="B42" t="n">
+        <v>292270.0</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -5796,10 +5889,13 @@
       <c r="F42" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>292271</v>
+      <c r="G42"/>
+      <c r="H42"/>
+    </row>
+    <row r="43">
+      <c r="A43"/>
+      <c r="B43" t="n">
+        <v>292271.0</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -5813,10 +5909,13 @@
       <c r="F43" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>299774</v>
+      <c r="G43"/>
+      <c r="H43"/>
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="n">
+        <v>299774.0</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -5830,10 +5929,13 @@
       <c r="F44" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>299880</v>
+      <c r="G44"/>
+      <c r="H44"/>
+    </row>
+    <row r="45">
+      <c r="A45"/>
+      <c r="B45" t="n">
+        <v>299880.0</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -5847,10 +5949,13 @@
       <c r="F45" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>406490</v>
+      <c r="G45"/>
+      <c r="H45"/>
+    </row>
+    <row r="46">
+      <c r="A46"/>
+      <c r="B46" t="n">
+        <v>406490.0</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -5859,18 +5964,20 @@
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G46" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>409089</v>
+      <c r="H46"/>
+    </row>
+    <row r="47">
+      <c r="A47"/>
+      <c r="B47" t="n">
+        <v>409089.0</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -5884,10 +5991,13 @@
       <c r="F47" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>411168</v>
+      <c r="G47"/>
+      <c r="H47"/>
+    </row>
+    <row r="48">
+      <c r="A48"/>
+      <c r="B48" t="n">
+        <v>411168.0</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -5896,18 +6006,20 @@
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>417688</v>
+        <v>21</v>
+      </c>
+      <c r="H48"/>
+    </row>
+    <row r="49">
+      <c r="A49"/>
+      <c r="B49" t="n">
+        <v>417688.0</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -5924,10 +6036,12 @@
       <c r="G49" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>419371</v>
+      <c r="H49"/>
+    </row>
+    <row r="50">
+      <c r="A50"/>
+      <c r="B50" t="n">
+        <v>419371.0</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -5944,10 +6058,12 @@
       <c r="G50" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>419659</v>
+      <c r="H50"/>
+    </row>
+    <row r="51">
+      <c r="A51"/>
+      <c r="B51" t="n">
+        <v>419659.0</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -5956,18 +6072,20 @@
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>420119</v>
+        <v>21</v>
+      </c>
+      <c r="H51"/>
+    </row>
+    <row r="52">
+      <c r="A52"/>
+      <c r="B52" t="n">
+        <v>420119.0</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -5976,10 +6094,10 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G52" t="s">
         <v>20</v>
@@ -5988,9 +6106,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>436542</v>
+    <row r="53">
+      <c r="A53"/>
+      <c r="B53" t="n">
+        <v>436542.0</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -6004,10 +6123,13 @@
       <c r="F53" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>439155</v>
+      <c r="G53"/>
+      <c r="H53"/>
+    </row>
+    <row r="54">
+      <c r="A54"/>
+      <c r="B54" t="n">
+        <v>439155.0</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -6021,10 +6143,13 @@
       <c r="F54" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>441021</v>
+      <c r="G54"/>
+      <c r="H54"/>
+    </row>
+    <row r="55">
+      <c r="A55"/>
+      <c r="B55" t="n">
+        <v>441021.0</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -6038,10 +6163,13 @@
       <c r="F55" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>442262</v>
+      <c r="G55"/>
+      <c r="H55"/>
+    </row>
+    <row r="56">
+      <c r="A56"/>
+      <c r="B56" t="n">
+        <v>442262.0</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -6055,10 +6183,13 @@
       <c r="F56" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>442931</v>
+      <c r="G56"/>
+      <c r="H56"/>
+    </row>
+    <row r="57">
+      <c r="A57"/>
+      <c r="B57" t="n">
+        <v>442931.0</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -6079,9 +6210,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>443257</v>
+    <row r="58">
+      <c r="A58"/>
+      <c r="B58" t="n">
+        <v>443257.0</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -6090,18 +6222,20 @@
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>446253</v>
+        <v>21</v>
+      </c>
+      <c r="H58"/>
+    </row>
+    <row r="59">
+      <c r="A59"/>
+      <c r="B59" t="n">
+        <v>446253.0</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -6118,10 +6252,12 @@
       <c r="G59" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>448013</v>
+      <c r="H59"/>
+    </row>
+    <row r="60">
+      <c r="A60"/>
+      <c r="B60" t="n">
+        <v>448013.0</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -6138,10 +6274,12 @@
       <c r="G60" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>452390</v>
+      <c r="H60"/>
+    </row>
+    <row r="61">
+      <c r="A61"/>
+      <c r="B61" t="n">
+        <v>452390.0</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -6150,98 +6288,108 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62"/>
+      <c r="B62" t="n">
+        <v>452992.0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62"/>
+    </row>
+    <row r="63">
+      <c r="A63"/>
+      <c r="B63" t="n">
+        <v>454280.0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63"/>
+    </row>
+    <row r="64">
+      <c r="A64"/>
+      <c r="B64" t="n">
+        <v>454287.0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64"/>
+      <c r="H64"/>
+    </row>
+    <row r="65">
+      <c r="A65"/>
+      <c r="B65" t="n">
+        <v>454745.0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s">
         <v>19</v>
       </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>452992</v>
-      </c>
-      <c r="C62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>454280</v>
-      </c>
-      <c r="C63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>454287</v>
-      </c>
-      <c r="C64" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>454745</v>
-      </c>
-      <c r="C65" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>454770</v>
+      <c r="H65"/>
+    </row>
+    <row r="66">
+      <c r="A66"/>
+      <c r="B66" t="n">
+        <v>454770.0</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -6255,10 +6403,13 @@
       <c r="F66" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>455839</v>
+      <c r="G66"/>
+      <c r="H66"/>
+    </row>
+    <row r="67">
+      <c r="A67"/>
+      <c r="B67" t="n">
+        <v>455839.0</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -6267,18 +6418,20 @@
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G67" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>461540</v>
+        <v>21</v>
+      </c>
+      <c r="H67"/>
+    </row>
+    <row r="68">
+      <c r="A68"/>
+      <c r="B68" t="n">
+        <v>461540.0</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -6295,10 +6448,12 @@
       <c r="G68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>462838</v>
+      <c r="H68"/>
+    </row>
+    <row r="69">
+      <c r="A69"/>
+      <c r="B69" t="n">
+        <v>462838.0</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -6307,18 +6462,20 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70">
-        <v>463934</v>
+        <v>20</v>
+      </c>
+      <c r="H69"/>
+    </row>
+    <row r="70">
+      <c r="A70"/>
+      <c r="B70" t="n">
+        <v>463934.0</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -6339,9 +6496,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <v>464863</v>
+    <row r="71">
+      <c r="A71"/>
+      <c r="B71" t="n">
+        <v>464863.0</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -6350,10 +6508,10 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
         <v>20</v>
@@ -6362,9 +6520,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <v>465018</v>
+    <row r="72">
+      <c r="A72"/>
+      <c r="B72" t="n">
+        <v>465018.0</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -6373,18 +6532,20 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G72" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <v>465085</v>
+        <v>21</v>
+      </c>
+      <c r="H72"/>
+    </row>
+    <row r="73">
+      <c r="A73"/>
+      <c r="B73" t="n">
+        <v>465085.0</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -6398,10 +6559,13 @@
       <c r="F73" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <v>465090</v>
+      <c r="G73"/>
+      <c r="H73"/>
+    </row>
+    <row r="74">
+      <c r="A74"/>
+      <c r="B74" t="n">
+        <v>465090.0</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
@@ -6418,10 +6582,12 @@
       <c r="G74" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <v>465141</v>
+      <c r="H74"/>
+    </row>
+    <row r="75">
+      <c r="A75"/>
+      <c r="B75" t="n">
+        <v>465141.0</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
@@ -6430,18 +6596,20 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G75" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <v>465275</v>
+        <v>20</v>
+      </c>
+      <c r="H75"/>
+    </row>
+    <row r="76">
+      <c r="A76"/>
+      <c r="B76" t="n">
+        <v>465275.0</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
@@ -6462,9 +6630,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <v>465391</v>
+    <row r="77">
+      <c r="A77"/>
+      <c r="B77" t="n">
+        <v>465391.0</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
@@ -6473,30 +6642,32 @@
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77"/>
+    </row>
+    <row r="78">
+      <c r="A78"/>
+      <c r="B78" t="n">
+        <v>465431.0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78">
-        <v>465431</v>
-      </c>
-      <c r="C78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" t="s">
-        <v>18</v>
-      </c>
       <c r="F78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G78" t="s">
         <v>20</v>
@@ -6505,9 +6676,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <v>465484</v>
+    <row r="79">
+      <c r="A79"/>
+      <c r="B79" t="n">
+        <v>465484.0</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
@@ -6521,10 +6693,13 @@
       <c r="F79" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80">
-        <v>465644</v>
+      <c r="G79"/>
+      <c r="H79"/>
+    </row>
+    <row r="80">
+      <c r="A80"/>
+      <c r="B80" t="n">
+        <v>465644.0</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
@@ -6533,18 +6708,20 @@
         <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G80" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81">
-        <v>465653</v>
+        <v>21</v>
+      </c>
+      <c r="H80"/>
+    </row>
+    <row r="81">
+      <c r="A81"/>
+      <c r="B81" t="n">
+        <v>465653.0</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -6558,10 +6735,13 @@
       <c r="F81" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82">
-        <v>465814</v>
+      <c r="G81"/>
+      <c r="H81"/>
+    </row>
+    <row r="82">
+      <c r="A82"/>
+      <c r="B82" t="n">
+        <v>465814.0</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
@@ -6582,9 +6762,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83">
-        <v>465850</v>
+    <row r="83">
+      <c r="A83"/>
+      <c r="B83" t="n">
+        <v>465850.0</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -6598,10 +6779,13 @@
       <c r="F83" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84">
-        <v>466433</v>
+      <c r="G83"/>
+      <c r="H83"/>
+    </row>
+    <row r="84">
+      <c r="A84"/>
+      <c r="B84" t="n">
+        <v>466433.0</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
@@ -6618,10 +6802,12 @@
       <c r="G84" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85">
-        <v>466579</v>
+      <c r="H84"/>
+    </row>
+    <row r="85">
+      <c r="A85"/>
+      <c r="B85" t="n">
+        <v>466579.0</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
@@ -6630,10 +6816,10 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
         <v>20</v>
@@ -6642,9 +6828,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86">
-        <v>466801</v>
+    <row r="86">
+      <c r="A86"/>
+      <c r="B86" t="n">
+        <v>466801.0</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
@@ -6661,10 +6848,12 @@
       <c r="G86" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87">
-        <v>466831</v>
+      <c r="H86"/>
+    </row>
+    <row r="87">
+      <c r="A87"/>
+      <c r="B87" t="n">
+        <v>466831.0</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
@@ -6685,9 +6874,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88">
-        <v>466968</v>
+    <row r="88">
+      <c r="A88"/>
+      <c r="B88" t="n">
+        <v>466968.0</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
@@ -6701,10 +6891,13 @@
       <c r="F88" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89">
-        <v>467069</v>
+      <c r="G88"/>
+      <c r="H88"/>
+    </row>
+    <row r="89">
+      <c r="A89"/>
+      <c r="B89" t="n">
+        <v>467069.0</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
@@ -6713,18 +6906,20 @@
         <v>10</v>
       </c>
       <c r="E89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s">
         <v>19</v>
       </c>
-      <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90">
-        <v>467189</v>
+      <c r="H89"/>
+    </row>
+    <row r="90">
+      <c r="A90"/>
+      <c r="B90" t="n">
+        <v>467189.0</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
@@ -6733,10 +6928,10 @@
         <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G90" t="s">
         <v>20</v>
@@ -6745,9 +6940,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91">
-        <v>467214</v>
+    <row r="91">
+      <c r="A91"/>
+      <c r="B91" t="n">
+        <v>467214.0</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
@@ -6761,10 +6957,13 @@
       <c r="F91" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92">
-        <v>467243</v>
+      <c r="G91"/>
+      <c r="H91"/>
+    </row>
+    <row r="92">
+      <c r="A92"/>
+      <c r="B92" t="n">
+        <v>467243.0</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
@@ -6778,10 +6977,13 @@
       <c r="F92" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93">
-        <v>467436</v>
+      <c r="G92"/>
+      <c r="H92"/>
+    </row>
+    <row r="93">
+      <c r="A93"/>
+      <c r="B93" t="n">
+        <v>467436.0</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
@@ -6790,18 +6992,20 @@
         <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F93" t="s">
         <v>18</v>
       </c>
       <c r="G93" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94">
-        <v>467451</v>
+        <v>20</v>
+      </c>
+      <c r="H93"/>
+    </row>
+    <row r="94">
+      <c r="A94"/>
+      <c r="B94" t="n">
+        <v>467451.0</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
@@ -6815,10 +7019,13 @@
       <c r="F94" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95">
-        <v>467455</v>
+      <c r="G94"/>
+      <c r="H94"/>
+    </row>
+    <row r="95">
+      <c r="A95"/>
+      <c r="B95" t="n">
+        <v>467455.0</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
@@ -6827,18 +7034,20 @@
         <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G95" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96">
-        <v>467461</v>
+      <c r="H95"/>
+    </row>
+    <row r="96">
+      <c r="A96"/>
+      <c r="B96" t="n">
+        <v>467461.0</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
@@ -6859,9 +7068,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97">
-        <v>467493</v>
+    <row r="97">
+      <c r="A97"/>
+      <c r="B97" t="n">
+        <v>467493.0</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
@@ -6870,10 +7080,10 @@
         <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G97" t="s">
         <v>20</v>
@@ -6882,9 +7092,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98">
-        <v>467497</v>
+    <row r="98">
+      <c r="A98"/>
+      <c r="B98" t="n">
+        <v>467497.0</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
@@ -6898,10 +7109,13 @@
       <c r="F98" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99">
-        <v>467501</v>
+      <c r="G98"/>
+      <c r="H98"/>
+    </row>
+    <row r="99">
+      <c r="A99"/>
+      <c r="B99" t="n">
+        <v>467501.0</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
@@ -6915,10 +7129,13 @@
       <c r="F99" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100">
-        <v>467636</v>
+      <c r="G99"/>
+      <c r="H99"/>
+    </row>
+    <row r="100">
+      <c r="A100"/>
+      <c r="B100" t="n">
+        <v>467636.0</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
@@ -6939,9 +7156,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101">
-        <v>467744</v>
+    <row r="101">
+      <c r="A101"/>
+      <c r="B101" t="n">
+        <v>467744.0</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
@@ -6950,152 +7168,170 @@
         <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F101" t="s">
+        <v>18</v>
+      </c>
+      <c r="G101" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102"/>
+      <c r="B102" t="n">
+        <v>467750.0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s">
+        <v>20</v>
+      </c>
+      <c r="F102" t="s">
         <v>19</v>
       </c>
-      <c r="G101" t="s">
-        <v>20</v>
-      </c>
-      <c r="H101" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102">
-        <v>467750</v>
-      </c>
-      <c r="C102" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="G102" t="s">
+        <v>21</v>
+      </c>
+      <c r="H102"/>
+    </row>
+    <row r="103">
+      <c r="A103"/>
+      <c r="B103" t="n">
+        <v>467765.0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103"/>
+      <c r="H103"/>
+    </row>
+    <row r="104">
+      <c r="A104"/>
+      <c r="B104" t="n">
+        <v>467775.0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" t="s">
+        <v>21</v>
+      </c>
+      <c r="F104" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104"/>
+      <c r="H104"/>
+    </row>
+    <row r="105">
+      <c r="A105"/>
+      <c r="B105" t="n">
+        <v>467836.0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105" t="s">
+        <v>21</v>
+      </c>
+      <c r="G105"/>
+      <c r="H105"/>
+    </row>
+    <row r="106">
+      <c r="A106"/>
+      <c r="B106" t="n">
+        <v>467870.0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" t="s">
+        <v>20</v>
+      </c>
+      <c r="F106" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106"/>
+    </row>
+    <row r="107">
+      <c r="A107"/>
+      <c r="B107" t="n">
+        <v>467873.0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" t="s">
         <v>19</v>
       </c>
-      <c r="F102" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103">
-        <v>467765</v>
-      </c>
-      <c r="C103" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" t="s">
-        <v>20</v>
-      </c>
-      <c r="F103" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104">
-        <v>467775</v>
-      </c>
-      <c r="C104" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" t="s">
-        <v>21</v>
-      </c>
-      <c r="F104" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105">
-        <v>467836</v>
-      </c>
-      <c r="C105" t="s">
-        <v>7</v>
-      </c>
-      <c r="D105" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105" t="s">
-        <v>20</v>
-      </c>
-      <c r="F105" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106">
-        <v>467870</v>
-      </c>
-      <c r="C106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E106" t="s">
-        <v>20</v>
-      </c>
-      <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107">
-        <v>467873</v>
-      </c>
-      <c r="C107" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="H107"/>
+    </row>
+    <row r="108">
+      <c r="A108"/>
+      <c r="B108" t="n">
+        <v>467940.0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108" t="s">
         <v>19</v>
       </c>
-      <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108">
-        <v>467940</v>
-      </c>
-      <c r="C108" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" t="s">
-        <v>19</v>
-      </c>
-      <c r="F108" t="s">
-        <v>20</v>
-      </c>
       <c r="G108" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109">
-        <v>467947</v>
+      <c r="H108"/>
+    </row>
+    <row r="109">
+      <c r="A109"/>
+      <c r="B109" t="n">
+        <v>467947.0</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
@@ -7104,18 +7340,20 @@
         <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F109" t="s">
         <v>18</v>
       </c>
       <c r="G109" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110">
-        <v>467963</v>
+        <v>20</v>
+      </c>
+      <c r="H109"/>
+    </row>
+    <row r="110">
+      <c r="A110"/>
+      <c r="B110" t="n">
+        <v>467963.0</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -7136,9 +7374,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111">
-        <v>467975</v>
+    <row r="111">
+      <c r="A111"/>
+      <c r="B111" t="n">
+        <v>467975.0</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -7147,10 +7386,10 @@
         <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G111" t="s">
         <v>20</v>
@@ -7159,9 +7398,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112">
-        <v>467986</v>
+    <row r="112">
+      <c r="A112"/>
+      <c r="B112" t="n">
+        <v>467986.0</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
@@ -7182,9 +7422,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113">
-        <v>468167</v>
+    <row r="113">
+      <c r="A113"/>
+      <c r="B113" t="n">
+        <v>468167.0</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
@@ -7198,10 +7439,13 @@
       <c r="F113" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114">
-        <v>468178</v>
+      <c r="G113"/>
+      <c r="H113"/>
+    </row>
+    <row r="114">
+      <c r="A114"/>
+      <c r="B114" t="n">
+        <v>468178.0</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
@@ -7215,10 +7459,13 @@
       <c r="F114" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115">
-        <v>468255</v>
+      <c r="G114"/>
+      <c r="H114"/>
+    </row>
+    <row r="115">
+      <c r="A115"/>
+      <c r="B115" t="n">
+        <v>468255.0</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
@@ -7227,10 +7474,10 @@
         <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G115" t="s">
         <v>20</v>
@@ -7239,9 +7486,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116">
-        <v>468284</v>
+    <row r="116">
+      <c r="A116"/>
+      <c r="B116" t="n">
+        <v>468284.0</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
@@ -7255,10 +7503,13 @@
       <c r="F116" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117">
-        <v>468311</v>
+      <c r="G116"/>
+      <c r="H116"/>
+    </row>
+    <row r="117">
+      <c r="A117"/>
+      <c r="B117" t="n">
+        <v>468311.0</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
@@ -7279,9 +7530,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118">
-        <v>468546</v>
+    <row r="118">
+      <c r="A118"/>
+      <c r="B118" t="n">
+        <v>468546.0</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
@@ -7295,10 +7547,13 @@
       <c r="F118" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119">
-        <v>468554</v>
+      <c r="G118"/>
+      <c r="H118"/>
+    </row>
+    <row r="119">
+      <c r="A119"/>
+      <c r="B119" t="n">
+        <v>468554.0</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
@@ -7312,10 +7567,13 @@
       <c r="F119" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120">
-        <v>468607</v>
+      <c r="G119"/>
+      <c r="H119"/>
+    </row>
+    <row r="120">
+      <c r="A120"/>
+      <c r="B120" t="n">
+        <v>468607.0</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
@@ -7329,10 +7587,13 @@
       <c r="F120" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121">
-        <v>468643</v>
+      <c r="G120"/>
+      <c r="H120"/>
+    </row>
+    <row r="121">
+      <c r="A121"/>
+      <c r="B121" t="n">
+        <v>468643.0</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
@@ -7346,10 +7607,13 @@
       <c r="F121" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B122">
-        <v>468736</v>
+      <c r="G121"/>
+      <c r="H121"/>
+    </row>
+    <row r="122">
+      <c r="A122"/>
+      <c r="B122" t="n">
+        <v>468736.0</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
@@ -7358,18 +7622,20 @@
         <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G122" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B123">
-        <v>468763</v>
+      <c r="H122"/>
+    </row>
+    <row r="123">
+      <c r="A123"/>
+      <c r="B123" t="n">
+        <v>468763.0</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
@@ -7383,10 +7649,13 @@
       <c r="F123" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B124">
-        <v>468841</v>
+      <c r="G123"/>
+      <c r="H123"/>
+    </row>
+    <row r="124">
+      <c r="A124"/>
+      <c r="B124" t="n">
+        <v>468841.0</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
@@ -7400,10 +7669,13 @@
       <c r="F124" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125">
-        <v>468859</v>
+      <c r="G124"/>
+      <c r="H124"/>
+    </row>
+    <row r="125">
+      <c r="A125"/>
+      <c r="B125" t="n">
+        <v>468859.0</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
@@ -7417,10 +7689,13 @@
       <c r="F125" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B126">
-        <v>468876</v>
+      <c r="G125"/>
+      <c r="H125"/>
+    </row>
+    <row r="126">
+      <c r="A126"/>
+      <c r="B126" t="n">
+        <v>468876.0</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
@@ -7429,10 +7704,10 @@
         <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G126" t="s">
         <v>20</v>
@@ -7441,9 +7716,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B127">
-        <v>468882</v>
+    <row r="127">
+      <c r="A127"/>
+      <c r="B127" t="n">
+        <v>468882.0</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
@@ -7464,9 +7740,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B128">
-        <v>468898</v>
+    <row r="128">
+      <c r="A128"/>
+      <c r="B128" t="n">
+        <v>468898.0</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
@@ -7480,10 +7757,13 @@
       <c r="F128" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B129">
-        <v>468903</v>
+      <c r="G128"/>
+      <c r="H128"/>
+    </row>
+    <row r="129">
+      <c r="A129"/>
+      <c r="B129" t="n">
+        <v>468903.0</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
@@ -7497,10 +7777,13 @@
       <c r="F129" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B130">
-        <v>468961</v>
+      <c r="G129"/>
+      <c r="H129"/>
+    </row>
+    <row r="130">
+      <c r="A130"/>
+      <c r="B130" t="n">
+        <v>468961.0</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
@@ -7517,10 +7800,12 @@
       <c r="G130" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B131">
-        <v>469129</v>
+      <c r="H130"/>
+    </row>
+    <row r="131">
+      <c r="A131"/>
+      <c r="B131" t="n">
+        <v>469129.0</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
@@ -7534,10 +7819,13 @@
       <c r="F131" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B132">
-        <v>469142</v>
+      <c r="G131"/>
+      <c r="H131"/>
+    </row>
+    <row r="132">
+      <c r="A132"/>
+      <c r="B132" t="n">
+        <v>469142.0</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
@@ -7551,10 +7839,13 @@
       <c r="F132" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B133">
-        <v>469186</v>
+      <c r="G132"/>
+      <c r="H132"/>
+    </row>
+    <row r="133">
+      <c r="A133"/>
+      <c r="B133" t="n">
+        <v>469186.0</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
@@ -7563,10 +7854,10 @@
         <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G133" t="s">
         <v>20</v>
@@ -7575,9 +7866,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B134">
-        <v>469193</v>
+    <row r="134">
+      <c r="A134"/>
+      <c r="B134" t="n">
+        <v>469193.0</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
@@ -7598,9 +7890,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B135">
-        <v>469213</v>
+    <row r="135">
+      <c r="A135"/>
+      <c r="B135" t="n">
+        <v>469213.0</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
@@ -7614,10 +7907,13 @@
       <c r="F135" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B136">
-        <v>469288</v>
+      <c r="G135"/>
+      <c r="H135"/>
+    </row>
+    <row r="136">
+      <c r="A136"/>
+      <c r="B136" t="n">
+        <v>469288.0</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
@@ -7626,41 +7922,44 @@
         <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F136" t="s">
+        <v>18</v>
+      </c>
+      <c r="G136" t="s">
+        <v>20</v>
+      </c>
+      <c r="H136" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137"/>
+      <c r="B137" t="n">
+        <v>469327.0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" t="s">
+        <v>21</v>
+      </c>
+      <c r="F137" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" t="s">
         <v>19</v>
       </c>
-      <c r="G136" t="s">
-        <v>20</v>
-      </c>
-      <c r="H136" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B137">
-        <v>469327</v>
-      </c>
-      <c r="C137" t="s">
-        <v>7</v>
-      </c>
-      <c r="D137" t="s">
-        <v>10</v>
-      </c>
-      <c r="E137" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B138">
-        <v>469351</v>
+      <c r="H137"/>
+    </row>
+    <row r="138">
+      <c r="A138"/>
+      <c r="B138" t="n">
+        <v>469351.0</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
@@ -7674,10 +7973,13 @@
       <c r="F138" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B139">
-        <v>469358</v>
+      <c r="G138"/>
+      <c r="H138"/>
+    </row>
+    <row r="139">
+      <c r="A139"/>
+      <c r="B139" t="n">
+        <v>469358.0</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
@@ -7686,18 +7988,20 @@
         <v>10</v>
       </c>
       <c r="E139" t="s">
+        <v>21</v>
+      </c>
+      <c r="F139" t="s">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
         <v>19</v>
       </c>
-      <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B140">
-        <v>469474</v>
+      <c r="H139"/>
+    </row>
+    <row r="140">
+      <c r="A140"/>
+      <c r="B140" t="n">
+        <v>469474.0</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
@@ -7718,9 +8022,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B141">
-        <v>469486</v>
+    <row r="141">
+      <c r="A141"/>
+      <c r="B141" t="n">
+        <v>469486.0</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
@@ -7734,10 +8039,13 @@
       <c r="F141" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B142">
-        <v>469625</v>
+      <c r="G141"/>
+      <c r="H141"/>
+    </row>
+    <row r="142">
+      <c r="A142"/>
+      <c r="B142" t="n">
+        <v>469625.0</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
@@ -7746,10 +8054,10 @@
         <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G142" t="s">
         <v>20</v>
@@ -7758,9 +8066,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B143">
-        <v>469740</v>
+    <row r="143">
+      <c r="A143"/>
+      <c r="B143" t="n">
+        <v>469740.0</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
@@ -7781,9 +8090,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B144">
-        <v>469823</v>
+    <row r="144">
+      <c r="A144"/>
+      <c r="B144" t="n">
+        <v>469823.0</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
@@ -7797,10 +8107,13 @@
       <c r="F144" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145">
-        <v>469857</v>
+      <c r="G144"/>
+      <c r="H144"/>
+    </row>
+    <row r="145">
+      <c r="A145"/>
+      <c r="B145" t="n">
+        <v>469857.0</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
@@ -7809,18 +8122,20 @@
         <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G145" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146">
-        <v>469975</v>
+      <c r="H145"/>
+    </row>
+    <row r="146">
+      <c r="A146"/>
+      <c r="B146" t="n">
+        <v>469975.0</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
@@ -7829,10 +8144,10 @@
         <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G146" t="s">
         <v>20</v>
@@ -7841,9 +8156,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147">
-        <v>470129</v>
+    <row r="147">
+      <c r="A147"/>
+      <c r="B147" t="n">
+        <v>470129.0</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
@@ -7857,10 +8173,13 @@
       <c r="F147" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148">
-        <v>470144</v>
+      <c r="G147"/>
+      <c r="H147"/>
+    </row>
+    <row r="148">
+      <c r="A148"/>
+      <c r="B148" t="n">
+        <v>470144.0</v>
       </c>
       <c r="C148" t="s">
         <v>7</v>
@@ -7874,10 +8193,13 @@
       <c r="F148" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149">
-        <v>470282</v>
+      <c r="G148"/>
+      <c r="H148"/>
+    </row>
+    <row r="149">
+      <c r="A149"/>
+      <c r="B149" t="n">
+        <v>470282.0</v>
       </c>
       <c r="C149" t="s">
         <v>7</v>
@@ -7898,9 +8220,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150">
-        <v>470290</v>
+    <row r="150">
+      <c r="A150"/>
+      <c r="B150" t="n">
+        <v>470290.0</v>
       </c>
       <c r="C150" t="s">
         <v>7</v>
@@ -7914,10 +8237,13 @@
       <c r="F150" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151">
-        <v>470309</v>
+      <c r="G150"/>
+      <c r="H150"/>
+    </row>
+    <row r="151">
+      <c r="A151"/>
+      <c r="B151" t="n">
+        <v>470309.0</v>
       </c>
       <c r="C151" t="s">
         <v>7</v>
@@ -7931,10 +8257,13 @@
       <c r="F151" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152">
-        <v>470373</v>
+      <c r="G151"/>
+      <c r="H151"/>
+    </row>
+    <row r="152">
+      <c r="A152"/>
+      <c r="B152" t="n">
+        <v>470373.0</v>
       </c>
       <c r="C152" t="s">
         <v>7</v>
@@ -7943,18 +8272,20 @@
         <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F152" t="s">
         <v>18</v>
       </c>
       <c r="G152" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153">
-        <v>470405</v>
+        <v>21</v>
+      </c>
+      <c r="H152"/>
+    </row>
+    <row r="153">
+      <c r="A153"/>
+      <c r="B153" t="n">
+        <v>470405.0</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
@@ -7968,10 +8299,13 @@
       <c r="F153" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154">
-        <v>470467</v>
+      <c r="G153"/>
+      <c r="H153"/>
+    </row>
+    <row r="154">
+      <c r="A154"/>
+      <c r="B154" t="n">
+        <v>470467.0</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
@@ -7980,18 +8314,20 @@
         <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G154" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155">
-        <v>470488</v>
+        <v>21</v>
+      </c>
+      <c r="H154"/>
+    </row>
+    <row r="155">
+      <c r="A155"/>
+      <c r="B155" t="n">
+        <v>470488.0</v>
       </c>
       <c r="C155" t="s">
         <v>7</v>
@@ -8000,18 +8336,20 @@
         <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F155" t="s">
         <v>18</v>
       </c>
       <c r="G155" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156">
-        <v>470638</v>
+        <v>21</v>
+      </c>
+      <c r="H155"/>
+    </row>
+    <row r="156">
+      <c r="A156"/>
+      <c r="B156" t="n">
+        <v>470638.0</v>
       </c>
       <c r="C156" t="s">
         <v>7</v>
@@ -8025,10 +8363,13 @@
       <c r="F156" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B157">
-        <v>470668</v>
+      <c r="G156"/>
+      <c r="H156"/>
+    </row>
+    <row r="157">
+      <c r="A157"/>
+      <c r="B157" t="n">
+        <v>470668.0</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
@@ -8042,10 +8383,13 @@
       <c r="F157" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B158">
-        <v>470754</v>
+      <c r="G157"/>
+      <c r="H157"/>
+    </row>
+    <row r="158">
+      <c r="A158"/>
+      <c r="B158" t="n">
+        <v>470754.0</v>
       </c>
       <c r="C158" t="s">
         <v>7</v>
@@ -8054,18 +8398,20 @@
         <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G158" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B159">
-        <v>470773</v>
+        <v>21</v>
+      </c>
+      <c r="H158"/>
+    </row>
+    <row r="159">
+      <c r="A159"/>
+      <c r="B159" t="n">
+        <v>470773.0</v>
       </c>
       <c r="C159" t="s">
         <v>7</v>
@@ -8074,34 +8420,35 @@
         <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F159" t="s">
+        <v>18</v>
+      </c>
+      <c r="G159" t="s">
+        <v>20</v>
+      </c>
+      <c r="H159" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160"/>
+      <c r="B160" t="n">
+        <v>470782.0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" t="s">
+        <v>18</v>
+      </c>
+      <c r="F160" t="s">
         <v>19</v>
       </c>
-      <c r="G159" t="s">
-        <v>20</v>
-      </c>
-      <c r="H159" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B160">
-        <v>470782</v>
-      </c>
-      <c r="C160" t="s">
-        <v>7</v>
-      </c>
-      <c r="D160" t="s">
-        <v>10</v>
-      </c>
-      <c r="E160" t="s">
-        <v>19</v>
-      </c>
-      <c r="F160" t="s">
-        <v>18</v>
-      </c>
       <c r="G160" t="s">
         <v>21</v>
       </c>
@@ -8109,9 +8456,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B161">
-        <v>470830</v>
+    <row r="161">
+      <c r="A161"/>
+      <c r="B161" t="n">
+        <v>470830.0</v>
       </c>
       <c r="C161" t="s">
         <v>7</v>
@@ -8125,10 +8473,13 @@
       <c r="F161" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B162">
-        <v>470859</v>
+      <c r="G161"/>
+      <c r="H161"/>
+    </row>
+    <row r="162">
+      <c r="A162"/>
+      <c r="B162" t="n">
+        <v>470859.0</v>
       </c>
       <c r="C162" t="s">
         <v>7</v>
@@ -8137,18 +8488,20 @@
         <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F162" t="s">
         <v>18</v>
       </c>
       <c r="G162" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B163">
-        <v>470921</v>
+        <v>21</v>
+      </c>
+      <c r="H162"/>
+    </row>
+    <row r="163">
+      <c r="A163"/>
+      <c r="B163" t="n">
+        <v>470921.0</v>
       </c>
       <c r="C163" t="s">
         <v>7</v>
@@ -8162,10 +8515,13 @@
       <c r="F163" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B164">
-        <v>471016</v>
+      <c r="G163"/>
+      <c r="H163"/>
+    </row>
+    <row r="164">
+      <c r="A164"/>
+      <c r="B164" t="n">
+        <v>471016.0</v>
       </c>
       <c r="C164" t="s">
         <v>7</v>
@@ -8179,10 +8535,13 @@
       <c r="F164" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B165">
-        <v>471028</v>
+      <c r="G164"/>
+      <c r="H164"/>
+    </row>
+    <row r="165">
+      <c r="A165"/>
+      <c r="B165" t="n">
+        <v>471028.0</v>
       </c>
       <c r="C165" t="s">
         <v>7</v>
@@ -8203,9 +8562,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B166">
-        <v>471129</v>
+    <row r="166">
+      <c r="A166"/>
+      <c r="B166" t="n">
+        <v>471129.0</v>
       </c>
       <c r="C166" t="s">
         <v>7</v>
@@ -8219,10 +8579,13 @@
       <c r="F166" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B167">
-        <v>471229</v>
+      <c r="G166"/>
+      <c r="H166"/>
+    </row>
+    <row r="167">
+      <c r="A167"/>
+      <c r="B167" t="n">
+        <v>471229.0</v>
       </c>
       <c r="C167" t="s">
         <v>7</v>
@@ -8236,10 +8599,13 @@
       <c r="F167" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B168">
-        <v>471255</v>
+      <c r="G167"/>
+      <c r="H167"/>
+    </row>
+    <row r="168">
+      <c r="A168"/>
+      <c r="B168" t="n">
+        <v>471255.0</v>
       </c>
       <c r="C168" t="s">
         <v>7</v>
@@ -8253,10 +8619,13 @@
       <c r="F168" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B169">
-        <v>471263</v>
+      <c r="G168"/>
+      <c r="H168"/>
+    </row>
+    <row r="169">
+      <c r="A169"/>
+      <c r="B169" t="n">
+        <v>471263.0</v>
       </c>
       <c r="C169" t="s">
         <v>7</v>
@@ -8265,18 +8634,20 @@
         <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F169" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G169" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B170">
-        <v>471492</v>
+        <v>21</v>
+      </c>
+      <c r="H169"/>
+    </row>
+    <row r="170">
+      <c r="A170"/>
+      <c r="B170" t="n">
+        <v>471492.0</v>
       </c>
       <c r="C170" t="s">
         <v>7</v>
@@ -8290,10 +8661,13 @@
       <c r="F170" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B171">
-        <v>471545</v>
+      <c r="G170"/>
+      <c r="H170"/>
+    </row>
+    <row r="171">
+      <c r="A171"/>
+      <c r="B171" t="n">
+        <v>471545.0</v>
       </c>
       <c r="C171" t="s">
         <v>7</v>
@@ -8302,18 +8676,20 @@
         <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F171" t="s">
         <v>18</v>
       </c>
       <c r="G171" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B172">
-        <v>471760</v>
+        <v>21</v>
+      </c>
+      <c r="H171"/>
+    </row>
+    <row r="172">
+      <c r="A172"/>
+      <c r="B172" t="n">
+        <v>471760.0</v>
       </c>
       <c r="C172" t="s">
         <v>7</v>
@@ -8327,10 +8703,13 @@
       <c r="F172" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B173">
-        <v>472004</v>
+      <c r="G172"/>
+      <c r="H172"/>
+    </row>
+    <row r="173">
+      <c r="A173"/>
+      <c r="B173" t="n">
+        <v>472004.0</v>
       </c>
       <c r="C173" t="s">
         <v>7</v>
@@ -8344,10 +8723,13 @@
       <c r="F173" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B174">
-        <v>472145</v>
+      <c r="G173"/>
+      <c r="H173"/>
+    </row>
+    <row r="174">
+      <c r="A174"/>
+      <c r="B174" t="n">
+        <v>472145.0</v>
       </c>
       <c r="C174" t="s">
         <v>7</v>
@@ -8356,18 +8738,20 @@
         <v>10</v>
       </c>
       <c r="E174" t="s">
+        <v>20</v>
+      </c>
+      <c r="F174" t="s">
         <v>19</v>
       </c>
-      <c r="F174" t="s">
-        <v>20</v>
-      </c>
       <c r="G174" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B175">
-        <v>472434</v>
+      <c r="H174"/>
+    </row>
+    <row r="175">
+      <c r="A175"/>
+      <c r="B175" t="n">
+        <v>472434.0</v>
       </c>
       <c r="C175" t="s">
         <v>7</v>
@@ -8381,10 +8765,13 @@
       <c r="F175" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B176">
-        <v>472501</v>
+      <c r="G175"/>
+      <c r="H175"/>
+    </row>
+    <row r="176">
+      <c r="A176"/>
+      <c r="B176" t="n">
+        <v>472501.0</v>
       </c>
       <c r="C176" t="s">
         <v>7</v>
@@ -8393,11 +8780,11 @@
         <v>10</v>
       </c>
       <c r="E176" t="s">
+        <v>18</v>
+      </c>
+      <c r="F176" t="s">
         <v>19</v>
       </c>
-      <c r="F176" t="s">
-        <v>18</v>
-      </c>
       <c r="G176" t="s">
         <v>21</v>
       </c>
@@ -8405,9 +8792,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B177">
-        <v>472537</v>
+    <row r="177">
+      <c r="A177"/>
+      <c r="B177" t="n">
+        <v>472537.0</v>
       </c>
       <c r="C177" t="s">
         <v>7</v>
@@ -8421,10 +8809,13 @@
       <c r="F177" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B178">
-        <v>472782</v>
+      <c r="G177"/>
+      <c r="H177"/>
+    </row>
+    <row r="178">
+      <c r="A178"/>
+      <c r="B178" t="n">
+        <v>472782.0</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
@@ -8433,18 +8824,20 @@
         <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G178" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B179">
-        <v>472962</v>
+        <v>21</v>
+      </c>
+      <c r="H178"/>
+    </row>
+    <row r="179">
+      <c r="A179"/>
+      <c r="B179" t="n">
+        <v>472962.0</v>
       </c>
       <c r="C179" t="s">
         <v>7</v>
@@ -8458,10 +8851,13 @@
       <c r="F179" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B180">
-        <v>473195</v>
+      <c r="G179"/>
+      <c r="H179"/>
+    </row>
+    <row r="180">
+      <c r="A180"/>
+      <c r="B180" t="n">
+        <v>473195.0</v>
       </c>
       <c r="C180" t="s">
         <v>7</v>
@@ -8470,18 +8866,20 @@
         <v>10</v>
       </c>
       <c r="E180" t="s">
+        <v>21</v>
+      </c>
+      <c r="F180" t="s">
+        <v>20</v>
+      </c>
+      <c r="G180" t="s">
         <v>19</v>
       </c>
-      <c r="F180" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B181">
-        <v>473215</v>
+      <c r="H180"/>
+    </row>
+    <row r="181">
+      <c r="A181"/>
+      <c r="B181" t="n">
+        <v>473215.0</v>
       </c>
       <c r="C181" t="s">
         <v>7</v>
@@ -8490,18 +8888,20 @@
         <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F181" t="s">
         <v>18</v>
       </c>
       <c r="G181" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B182">
-        <v>473482</v>
+        <v>21</v>
+      </c>
+      <c r="H181"/>
+    </row>
+    <row r="182">
+      <c r="A182"/>
+      <c r="B182" t="n">
+        <v>473482.0</v>
       </c>
       <c r="C182" t="s">
         <v>7</v>
@@ -8515,10 +8915,13 @@
       <c r="F182" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B183">
-        <v>473708</v>
+      <c r="G182"/>
+      <c r="H182"/>
+    </row>
+    <row r="183">
+      <c r="A183"/>
+      <c r="B183" t="n">
+        <v>473708.0</v>
       </c>
       <c r="C183" t="s">
         <v>7</v>
@@ -8527,18 +8930,20 @@
         <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G183" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B184">
-        <v>473899</v>
+        <v>21</v>
+      </c>
+      <c r="H183"/>
+    </row>
+    <row r="184">
+      <c r="A184"/>
+      <c r="B184" t="n">
+        <v>473899.0</v>
       </c>
       <c r="C184" t="s">
         <v>7</v>
@@ -8552,10 +8957,13 @@
       <c r="F184" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B185">
-        <v>475115</v>
+      <c r="G184"/>
+      <c r="H184"/>
+    </row>
+    <row r="185">
+      <c r="A185"/>
+      <c r="B185" t="n">
+        <v>475115.0</v>
       </c>
       <c r="C185" t="s">
         <v>7</v>
@@ -8569,10 +8977,13 @@
       <c r="F185" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B186">
-        <v>476008</v>
+      <c r="G185"/>
+      <c r="H185"/>
+    </row>
+    <row r="186">
+      <c r="A186"/>
+      <c r="B186" t="n">
+        <v>476008.0</v>
       </c>
       <c r="C186" t="s">
         <v>7</v>
@@ -8586,10 +8997,13 @@
       <c r="F186" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B187">
-        <v>476289</v>
+      <c r="G186"/>
+      <c r="H186"/>
+    </row>
+    <row r="187">
+      <c r="A187"/>
+      <c r="B187" t="n">
+        <v>476289.0</v>
       </c>
       <c r="C187" t="s">
         <v>7</v>
@@ -8603,10 +9017,13 @@
       <c r="F187" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B188">
-        <v>476531</v>
+      <c r="G187"/>
+      <c r="H187"/>
+    </row>
+    <row r="188">
+      <c r="A188"/>
+      <c r="B188" t="n">
+        <v>476531.0</v>
       </c>
       <c r="C188" t="s">
         <v>7</v>
@@ -8620,10 +9037,13 @@
       <c r="F188" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B189">
-        <v>476883</v>
+      <c r="G188"/>
+      <c r="H188"/>
+    </row>
+    <row r="189">
+      <c r="A189"/>
+      <c r="B189" t="n">
+        <v>476883.0</v>
       </c>
       <c r="C189" t="s">
         <v>7</v>
@@ -8632,18 +9052,20 @@
         <v>10</v>
       </c>
       <c r="E189" t="s">
+        <v>20</v>
+      </c>
+      <c r="F189" t="s">
         <v>19</v>
       </c>
-      <c r="F189" t="s">
-        <v>20</v>
-      </c>
       <c r="G189" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B190">
-        <v>477153</v>
+      <c r="H189"/>
+    </row>
+    <row r="190">
+      <c r="A190"/>
+      <c r="B190" t="n">
+        <v>477153.0</v>
       </c>
       <c r="C190" t="s">
         <v>7</v>
@@ -8657,10 +9079,13 @@
       <c r="F190" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B191">
-        <v>477738</v>
+      <c r="G190"/>
+      <c r="H190"/>
+    </row>
+    <row r="191">
+      <c r="A191"/>
+      <c r="B191" t="n">
+        <v>477738.0</v>
       </c>
       <c r="C191" t="s">
         <v>7</v>
@@ -8674,10 +9099,13 @@
       <c r="F191" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B192">
-        <v>478406</v>
+      <c r="G191"/>
+      <c r="H191"/>
+    </row>
+    <row r="192">
+      <c r="A192"/>
+      <c r="B192" t="n">
+        <v>478406.0</v>
       </c>
       <c r="C192" t="s">
         <v>7</v>
@@ -8698,9 +9126,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B193">
-        <v>478589</v>
+    <row r="193">
+      <c r="A193"/>
+      <c r="B193" t="n">
+        <v>478589.0</v>
       </c>
       <c r="C193" t="s">
         <v>7</v>
@@ -8714,10 +9143,13 @@
       <c r="F193" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B194">
-        <v>479276</v>
+      <c r="G193"/>
+      <c r="H193"/>
+    </row>
+    <row r="194">
+      <c r="A194"/>
+      <c r="B194" t="n">
+        <v>479276.0</v>
       </c>
       <c r="C194" t="s">
         <v>7</v>
@@ -8726,11 +9158,11 @@
         <v>10</v>
       </c>
       <c r="E194" t="s">
+        <v>18</v>
+      </c>
+      <c r="F194" t="s">
         <v>19</v>
       </c>
-      <c r="F194" t="s">
-        <v>18</v>
-      </c>
       <c r="G194" t="s">
         <v>21</v>
       </c>
@@ -8738,9 +9170,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B195">
-        <v>479658</v>
+    <row r="195">
+      <c r="A195"/>
+      <c r="B195" t="n">
+        <v>479658.0</v>
       </c>
       <c r="C195" t="s">
         <v>7</v>
@@ -8754,8 +9187,10 @@
       <c r="F195" t="s">
         <v>21</v>
       </c>
+      <c r="G195"/>
+      <c r="H195"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/scr/main/resources/data/StudentData.xlsx
+++ b/scr/main/resources/data/StudentData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16981" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31861" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -5359,10 +5359,10 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17"/>
     </row>
@@ -5478,13 +5478,13 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
         <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H23"/>
     </row>
@@ -5785,10 +5785,10 @@
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H37"/>
     </row>
@@ -6006,13 +6006,13 @@
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H48"/>
     </row>
@@ -6050,13 +6050,13 @@
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H50"/>
     </row>
@@ -6072,13 +6072,13 @@
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H51"/>
     </row>
@@ -6225,10 +6225,10 @@
         <v>20</v>
       </c>
       <c r="F58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
         <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
       </c>
       <c r="H58"/>
     </row>
@@ -6266,13 +6266,13 @@
         <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H60"/>
     </row>
@@ -6376,13 +6376,13 @@
         <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H65"/>
     </row>
@@ -6418,13 +6418,13 @@
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H67"/>
     </row>
@@ -6440,13 +6440,13 @@
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H68"/>
     </row>
@@ -6462,13 +6462,13 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G69" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H69"/>
     </row>
@@ -6532,13 +6532,13 @@
         <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H72"/>
     </row>
@@ -6574,13 +6574,13 @@
         <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H74"/>
     </row>
@@ -6596,13 +6596,13 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F75" t="s">
         <v>18</v>
       </c>
       <c r="G75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H75"/>
     </row>
@@ -6645,10 +6645,10 @@
         <v>20</v>
       </c>
       <c r="F77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
         <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>21</v>
       </c>
       <c r="H77"/>
     </row>
@@ -6843,10 +6843,10 @@
         <v>20</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G86" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H86"/>
     </row>
@@ -6992,13 +6992,13 @@
         <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G93" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H93"/>
     </row>
@@ -7034,10 +7034,10 @@
         <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G95" t="s">
         <v>21</v>
@@ -7274,13 +7274,13 @@
         <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G106" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H106"/>
     </row>
@@ -7340,13 +7340,13 @@
         <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F109" t="s">
         <v>18</v>
       </c>
       <c r="G109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H109"/>
     </row>
@@ -7988,10 +7988,10 @@
         <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G139" t="s">
         <v>19</v>

--- a/scr/main/resources/data/StudentData.xlsx
+++ b/scr/main/resources/data/StudentData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31861" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34651" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
